--- a/papers/manifest.xlsx
+++ b/papers/manifest.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg\Documents\GitHub\AndrewDGordon.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B649F1-B772-443F-B29A-D06C46FFCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483DBA5-CB96-4E0A-B7A2-5F19AC702D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Number</t>
   </si>
@@ -91,16 +102,33 @@
   </si>
   <si>
     <t>GAM_CHI_2023</t>
+  </si>
+  <si>
+    <t>anytime-anywhere</t>
+  </si>
+  <si>
+    <t>https://andrewdgordon.github.io/papers/</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,16 +151,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,6 +181,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}" name="Table1" displayName="Table1" ref="A3:D23" totalsRowShown="0">
+  <autoFilter ref="A3:D23" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{776FD5D7-1C50-49CB-8672-798BE5AAF3F1}" name="Number"/>
+    <tableColumn id="2" xr3:uid="{7904FB71-6D9E-4144-8B9D-D8B7133CB383}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{A07B7E11-9588-4CD0-97EA-ED4E3F7EF89D}" name="URL" dataDxfId="1">
+      <calculatedColumnFormula>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{17418F65-B88B-4EEA-8DF1-1DA3C929A9F1}" name="Hyperlink" dataDxfId="0">
+      <calculatedColumnFormula>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,186 +463,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="40.46484375" customWidth="1"/>
+    <col min="2" max="2" width="47.86328125" customWidth="1"/>
+    <col min="3" max="3" width="74.46484375" customWidth="1"/>
+    <col min="4" max="4" width="59.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="C4" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/EmbeddingPaper.pdf</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>EmbeddingPaper</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="C5" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/fpio.pdf</v>
+      </c>
+      <c r="D5" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>fpio</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="C6" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/hug93.pdf</v>
+      </c>
+      <c r="D6" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>hug93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="C7" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/concurrent-haskell.pdf</v>
+      </c>
+      <c r="D7" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>concurrent-haskell</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="C8" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/ic99spi.pdf</v>
+      </c>
+      <c r="D8" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>ic99spi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="C9" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/MobileAmbients_A4.pdf</v>
+      </c>
+      <c r="D9" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>MobileAmbients_A4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/anytime-anywhere.pdf</v>
+      </c>
+      <c r="D10" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>anytime-anywhere</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="C11" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/popl01.pdf</v>
+      </c>
+      <c r="D11" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>popl01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="C12" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/jcs03.pdf</v>
+      </c>
+      <c r="D12" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>jcs03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="C13" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/secpal_jcs_final.pdf</v>
+      </c>
+      <c r="D13" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>secpal_jcs_final</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="C14" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/refinement-types-for-secure-implementations.pdf</v>
+      </c>
+      <c r="D14" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>refinement-types-for-secure-implementations</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="C15" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/semantic-subtyping-jfp2012.pdf</v>
+      </c>
+      <c r="D15" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>semantic-subtyping-jfp2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="C16" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/deriving-pdfs-lmcs.pdf</v>
+      </c>
+      <c r="D16" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>deriving-pdfs-lmcs</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="C17" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/GORDON-HENZINGER-NORI-RAJAMANI-2014-Probabilistic-Programming.pdf</v>
+      </c>
+      <c r="D17" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>GORDON-HENZINGER-NORI-RAJAMANI-2014-Probabilistic-Programming</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="C18" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/Tabular-a-schema-driven-probabilistic-programming-language.pdf</v>
+      </c>
+      <c r="D18" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>Tabular-a-schema-driven-probabilistic-programming-language</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="C19" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/lambda-calculus-foundation-universal-probabilistic-programming.pdf</v>
+      </c>
+      <c r="D19" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>lambda-calculus-foundation-universal-probabilistic-programming</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="C20" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/slicstan.pdf</v>
+      </c>
+      <c r="D20" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>slicstan</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="C21" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/elastic-sdfs-jfp2020.pdf</v>
+      </c>
+      <c r="D21" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>elastic-sdfs-jfp2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="C22" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/GridBook.pdf</v>
+      </c>
+      <c r="D22" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>GridBook</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
+      <c r="C23" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/GAM_CHI_2023.pdf</v>
+      </c>
+      <c r="D23" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>GAM_CHI_2023</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{6A8FC668-191D-491D-83AF-445D64F07CC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/papers/manifest.xlsx
+++ b/papers/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg\Documents\GitHub\AndrewDGordon.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483DBA5-CB96-4E0A-B7A2-5F19AC702D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48878790-277C-46CD-A822-1FA151C8C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>publication_list</t>
   </si>
 </sst>
 </file>
@@ -155,9 +158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -184,8 +189,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}" name="Table1" displayName="Table1" ref="A3:D23" totalsRowShown="0">
-  <autoFilter ref="A3:D23" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}" name="Table1" displayName="Table1" ref="A3:D24" totalsRowShown="0">
+  <autoFilter ref="A3:D24" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{776FD5D7-1C50-49CB-8672-798BE5AAF3F1}" name="Number"/>
     <tableColumn id="2" xr3:uid="{7904FB71-6D9E-4144-8B9D-D8B7133CB383}" name="Name"/>
@@ -463,25 +468,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.86328125" customWidth="1"/>
-    <col min="3" max="3" width="74.46484375" customWidth="1"/>
-    <col min="4" max="4" width="59.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -495,322 +500,338 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/publication_list.pdf</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>publication_list</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/EmbeddingPaper.pdf</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D5" s="1" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>EmbeddingPaper</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/fpio.pdf</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>fpio</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/hug93.pdf</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>hug93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C8" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/concurrent-haskell.pdf</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>concurrent-haskell</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/ic99spi.pdf</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>ic99spi</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/MobileAmbients_A4.pdf</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>MobileAmbients_A4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/anytime-anywhere.pdf</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>anytime-anywhere</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/popl01.pdf</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>popl01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C13" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/jcs03.pdf</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>jcs03</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/secpal_jcs_final.pdf</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>secpal_jcs_final</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/refinement-types-for-secure-implementations.pdf</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>refinement-types-for-secure-implementations</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/semantic-subtyping-jfp2012.pdf</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>semantic-subtyping-jfp2012</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C17" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/deriving-pdfs-lmcs.pdf</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>deriving-pdfs-lmcs</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C18" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/GORDON-HENZINGER-NORI-RAJAMANI-2014-Probabilistic-Programming.pdf</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>GORDON-HENZINGER-NORI-RAJAMANI-2014-Probabilistic-Programming</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C19" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/Tabular-a-schema-driven-probabilistic-programming-language.pdf</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>Tabular-a-schema-driven-probabilistic-programming-language</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/lambda-calculus-foundation-universal-probabilistic-programming.pdf</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>lambda-calculus-foundation-universal-probabilistic-programming</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C21" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/slicstan.pdf</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>slicstan</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/elastic-sdfs-jfp2020.pdf</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>elastic-sdfs-jfp2020</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/GridBook.pdf</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>GridBook</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/GAM_CHI_2023.pdf</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>GAM_CHI_2023</v>
       </c>

--- a/papers/manifest.xlsx
+++ b/papers/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg\Documents\GitHub\AndrewDGordon.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48878790-277C-46CD-A822-1FA151C8C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFDEC71-5F3A-4139-862D-F097BA72B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Number</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>publication_list</t>
+  </si>
+  <si>
+    <t>monadic-io-haskell</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -189,8 +192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}" name="Table1" displayName="Table1" ref="A3:D24" totalsRowShown="0">
-  <autoFilter ref="A3:D24" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}" name="Table1" displayName="Table1" ref="A3:D25" totalsRowShown="0">
+  <autoFilter ref="A3:D25" xr:uid="{D0ED1E55-921E-4258-9736-F4977EF33833}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{776FD5D7-1C50-49CB-8672-798BE5AAF3F1}" name="Number"/>
     <tableColumn id="2" xr3:uid="{7904FB71-6D9E-4144-8B9D-D8B7133CB383}" name="Name"/>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,11 +510,11 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" t="str">
         <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
         <v>https://andrewdgordon.github.io/papers/publication_list.pdf</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="2" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>publication_list</v>
       </c>
@@ -834,6 +837,19 @@
       <c r="D24" t="str">
         <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
         <v>GAM_CHI_2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>$C$1&amp;Table1[[#This Row],[Name]]&amp;".pdf"</f>
+        <v>https://andrewdgordon.github.io/papers/monadic-io-haskell.pdf</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>HYPERLINK(Table1[[#This Row],[URL]],Table1[[#This Row],[Name]])</f>
+        <v>monadic-io-haskell</v>
       </c>
     </row>
   </sheetData>
